--- a/biology/Botanique/Arille/Arille.xlsx
+++ b/biology/Botanique/Arille/Arille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un arille est une enveloppe charnue plus ou moins développée autour d'une graine. Il peut correspondre à une excroissance du funicule (arille vrai), à une excroissance du micropyle (arillode), ou à un épaississement du raphé (strophiole).
 Un des cas les plus représentatifs est celui de la pseudo-baie d'if pour laquelle l'enveloppe charnue est incomplète. Cette graine d'if ne constitue en fait pas un fruit, le fruit étant défini, en botanique, comme un organe dérivant de l'ovaire (vrai fruit) et potentiellement d'autres organes (faux fruit) et recouvrant complètement la graine. L'arille est la seule partie non toxique de l'if, sucrée, mucilagineuse.
@@ -513,7 +525,9 @@
           <t>Espèces présentant un arille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espèces du genre Nymphaea (nénuphars)
 Les litchis
